--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T01:49:52+02:00</t>
+    <t>2023-04-11T09:32:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:32:34+02:00</t>
+    <t>2023-04-18T13:51:55+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -617,7 +617,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8445</t>
+    <t>http://example.org/ValueSet/appointment-cancellation-reason</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -2287,7 +2287,7 @@
     <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="56.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="57.734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -4355,7 +4355,7 @@
         <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" t="s" s="2">

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T13:51:55+02:00</t>
+    <t>2023-04-18T14:05:08+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="409">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T14:05:08+02:00</t>
+    <t>2023-04-19T23:41:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -615,9 +615,6 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>http://example.org/ValueSet/appointment-cancellation-reason</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1618,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25">
@@ -1634,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27">
@@ -1716,7 +1713,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38">
@@ -1732,7 +1729,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40">
@@ -1753,10 +1750,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="43">
@@ -1780,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46">
@@ -1796,7 +1793,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48">
@@ -1878,7 +1875,7 @@
         <v>27</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59">
@@ -1894,7 +1891,7 @@
         <v>31</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61">
@@ -1915,10 +1912,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="64">
@@ -1942,7 +1939,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67">
@@ -1958,7 +1955,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69">
@@ -2040,7 +2037,7 @@
         <v>27</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80">
@@ -2056,7 +2053,7 @@
         <v>31</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82">
@@ -2077,10 +2074,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="85">
@@ -2096,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87">
@@ -2104,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88">
@@ -2120,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90">
@@ -2128,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91">
@@ -2174,7 +2171,7 @@
         <v>21</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97">
@@ -2202,7 +2199,7 @@
         <v>27</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101">
@@ -2218,7 +2215,7 @@
         <v>31</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103">
@@ -2239,10 +2236,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2284,7 @@
     <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="57.734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="56.84765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -4359,25 +4356,25 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -4397,10 +4394,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4423,19 +4420,19 @@
         <v>81</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="O21" t="s" s="2">
+      <c r="P21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="Q21" t="s" s="2">
         <v>73</v>
@@ -4484,7 +4481,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -4504,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4533,10 +4530,10 @@
         <v>172</v>
       </c>
       <c r="M22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -4567,7 +4564,7 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>73</v>
@@ -4585,7 +4582,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -4605,10 +4602,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4634,13 +4631,13 @@
         <v>172</v>
       </c>
       <c r="M23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
@@ -4670,7 +4667,7 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>73</v>
@@ -4688,7 +4685,7 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -4708,10 +4705,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4737,10 +4734,10 @@
         <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4771,7 +4768,7 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>73</v>
@@ -4789,7 +4786,7 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -4809,10 +4806,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4838,10 +4835,10 @@
         <v>172</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4872,7 +4869,7 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>73</v>
@@ -4890,7 +4887,7 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -4910,10 +4907,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5013,10 +5010,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5118,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5193,17 +5190,17 @@
         <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -5223,13 +5220,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="D29" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="E29" t="s" s="2">
         <v>73</v>
@@ -5254,10 +5251,10 @@
         <v>187</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>190</v>
@@ -5288,14 +5285,14 @@
         <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AB29" t="s" s="2">
         <v>73</v>
       </c>
@@ -5312,7 +5309,7 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -5332,13 +5329,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="D30" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="E30" t="s" s="2">
         <v>73</v>
@@ -5363,10 +5360,10 @@
         <v>187</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>190</v>
@@ -5397,13 +5394,13 @@
         <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="AA30" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>73</v>
@@ -5421,7 +5418,7 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -5441,13 +5438,13 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="D31" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="E31" t="s" s="2">
         <v>73</v>
@@ -5472,10 +5469,10 @@
         <v>187</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>190</v>
@@ -5506,13 +5503,13 @@
         <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="AA31" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>73</v>
@@ -5530,7 +5527,7 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -5550,10 +5547,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5576,19 +5573,19 @@
         <v>81</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="O32" t="s" s="2">
+      <c r="P32" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="Q32" t="s" s="2">
         <v>73</v>
@@ -5637,7 +5634,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -5657,10 +5654,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5686,10 +5683,10 @@
         <v>172</v>
       </c>
       <c r="M33" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5719,11 +5716,11 @@
         <v>104</v>
       </c>
       <c r="Z33" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AA33" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AA33" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="AB33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5740,7 +5737,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
@@ -5760,10 +5757,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5786,13 +5783,13 @@
         <v>73</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -5843,7 +5840,7 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -5863,10 +5860,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5889,16 +5886,16 @@
         <v>73</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -5948,7 +5945,7 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
@@ -5968,10 +5965,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5994,13 +5991,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M36" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -6051,7 +6048,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -6071,10 +6068,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6097,13 +6094,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -6154,7 +6151,7 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
@@ -6174,10 +6171,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6200,13 +6197,13 @@
         <v>81</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -6257,7 +6254,7 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
@@ -6277,10 +6274,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6303,13 +6300,13 @@
         <v>81</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -6360,7 +6357,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -6380,10 +6377,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6406,13 +6403,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6463,7 +6460,7 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
@@ -6483,10 +6480,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6509,13 +6506,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6566,7 +6563,7 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -6586,10 +6583,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6612,16 +6609,16 @@
         <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6671,7 +6668,7 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -6691,10 +6688,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6717,16 +6714,16 @@
         <v>73</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
@@ -6776,7 +6773,7 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -6796,10 +6793,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6822,13 +6819,13 @@
         <v>73</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M44" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -6879,7 +6876,7 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
@@ -6899,14 +6896,14 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
@@ -6925,13 +6922,13 @@
         <v>73</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -6982,7 +6979,7 @@
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
@@ -7002,10 +6999,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7028,13 +7025,13 @@
         <v>73</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -7085,7 +7082,7 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
@@ -7097,7 +7094,7 @@
         <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47">
@@ -7105,10 +7102,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7131,7 +7128,7 @@
         <v>73</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>178</v>
@@ -7208,10 +7205,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7313,14 +7310,14 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
@@ -7342,10 +7339,10 @@
         <v>124</v>
       </c>
       <c r="M49" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>157</v>
@@ -7400,7 +7397,7 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
@@ -7420,10 +7417,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7449,13 +7446,13 @@
         <v>172</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
@@ -7481,14 +7478,14 @@
         <v>73</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z50" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AA50" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AA50" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="AB50" t="s" s="2">
         <v>73</v>
       </c>
@@ -7505,7 +7502,7 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
@@ -7525,10 +7522,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7551,13 +7548,13 @@
         <v>81</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -7608,7 +7605,7 @@
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
@@ -7628,10 +7625,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7657,10 +7654,10 @@
         <v>100</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -7690,11 +7687,11 @@
         <v>168</v>
       </c>
       <c r="Z52" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AA52" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AA52" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AB52" t="s" s="2">
         <v>73</v>
       </c>
@@ -7711,7 +7708,7 @@
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>74</v>
@@ -7731,10 +7728,10 @@
         <v>3</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7760,10 +7757,10 @@
         <v>100</v>
       </c>
       <c r="M53" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7793,11 +7790,11 @@
         <v>168</v>
       </c>
       <c r="Z53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AA53" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AA53" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AB53" t="s" s="2">
         <v>73</v>
       </c>
@@ -7814,7 +7811,7 @@
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
@@ -7834,10 +7831,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7860,13 +7857,13 @@
         <v>73</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -7917,7 +7914,7 @@
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
@@ -7937,10 +7934,10 @@
         <v>3</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7963,16 +7960,16 @@
         <v>73</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M55" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -8022,7 +8019,7 @@
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
@@ -8145,10 +8142,10 @@
         <v>141</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8248,10 +8245,10 @@
         <v>141</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8351,10 +8348,10 @@
         <v>141</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8380,13 +8377,13 @@
         <v>94</v>
       </c>
       <c r="M59" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
@@ -8394,7 +8391,7 @@
       </c>
       <c r="R59" s="2"/>
       <c r="S59" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>73</v>
@@ -8436,7 +8433,7 @@
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>80</v>
@@ -8456,10 +8453,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8482,13 +8479,13 @@
         <v>73</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>142</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -8539,7 +8536,7 @@
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>74</v>
@@ -8662,10 +8659,10 @@
         <v>146</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8765,10 +8762,10 @@
         <v>146</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8868,10 +8865,10 @@
         <v>146</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8897,13 +8894,13 @@
         <v>94</v>
       </c>
       <c r="M64" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
@@ -8911,7 +8908,7 @@
       </c>
       <c r="R64" s="2"/>
       <c r="S64" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>73</v>
@@ -8953,7 +8950,7 @@
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
@@ -8973,10 +8970,10 @@
         <v>146</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8999,13 +8996,13 @@
         <v>73</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -9056,7 +9053,7 @@
         <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>74</v>
@@ -9179,10 +9176,10 @@
         <v>151</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9282,10 +9279,10 @@
         <v>151</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9385,10 +9382,10 @@
         <v>151</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9414,13 +9411,13 @@
         <v>94</v>
       </c>
       <c r="M69" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -9428,7 +9425,7 @@
       </c>
       <c r="R69" s="2"/>
       <c r="S69" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>73</v>
@@ -9470,7 +9467,7 @@
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
@@ -9490,10 +9487,10 @@
         <v>151</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9519,10 +9516,10 @@
         <v>100</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -9552,10 +9549,10 @@
         <v>104</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB70" t="s" s="2">
         <v>73</v>
@@ -9573,7 +9570,7 @@
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
@@ -9590,7 +9587,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>125</v>
@@ -9693,13 +9690,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9796,13 +9793,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9901,16 +9898,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B74" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D74" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="E74" t="s" s="2">
         <v>73</v>
@@ -9935,10 +9932,10 @@
         <v>124</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -10006,13 +10003,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B75" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C75" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10109,13 +10106,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B76" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10212,13 +10209,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B77" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10244,13 +10241,13 @@
         <v>94</v>
       </c>
       <c r="M77" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10258,7 +10255,7 @@
       </c>
       <c r="R77" s="2"/>
       <c r="S77" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>73</v>
@@ -10300,7 +10297,7 @@
         <v>73</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>80</v>
@@ -10317,13 +10314,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B78" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C78" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10349,10 +10346,10 @@
         <v>187</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -10383,7 +10380,7 @@
       </c>
       <c r="Z78" s="2"/>
       <c r="AA78" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>73</v>
@@ -10401,7 +10398,7 @@
         <v>73</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>74</v>
@@ -10418,16 +10415,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B79" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D79" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="D79" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="E79" t="s" s="2">
         <v>73</v>
@@ -10452,10 +10449,10 @@
         <v>124</v>
       </c>
       <c r="M79" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10523,13 +10520,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10626,13 +10623,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10729,13 +10726,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10761,13 +10758,13 @@
         <v>94</v>
       </c>
       <c r="M82" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
@@ -10775,7 +10772,7 @@
       </c>
       <c r="R82" s="2"/>
       <c r="S82" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>73</v>
@@ -10817,7 +10814,7 @@
         <v>73</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>80</v>
@@ -10834,13 +10831,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10863,13 +10860,13 @@
         <v>73</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -10920,7 +10917,7 @@
         <v>73</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>74</v>
@@ -10937,16 +10934,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B84" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D84" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="E84" t="s" s="2">
         <v>73</v>
@@ -10971,10 +10968,10 @@
         <v>124</v>
       </c>
       <c r="M84" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -11042,13 +11039,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11145,13 +11142,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11248,13 +11245,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11280,13 +11277,13 @@
         <v>94</v>
       </c>
       <c r="M87" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -11294,7 +11291,7 @@
       </c>
       <c r="R87" s="2"/>
       <c r="S87" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>73</v>
@@ -11336,7 +11333,7 @@
         <v>73</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>80</v>
@@ -11353,13 +11350,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11382,13 +11379,13 @@
         <v>73</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -11439,7 +11436,7 @@
         <v>73</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>74</v>
@@ -11456,16 +11453,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B89" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D89" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="D89" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="E89" t="s" s="2">
         <v>73</v>
@@ -11490,10 +11487,10 @@
         <v>124</v>
       </c>
       <c r="M89" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -11561,13 +11558,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11664,13 +11661,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11767,13 +11764,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11799,13 +11796,13 @@
         <v>94</v>
       </c>
       <c r="M92" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -11813,7 +11810,7 @@
       </c>
       <c r="R92" s="2"/>
       <c r="S92" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>73</v>
@@ -11855,7 +11852,7 @@
         <v>73</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>80</v>
@@ -11872,13 +11869,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11901,13 +11898,13 @@
         <v>73</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -11958,7 +11955,7 @@
         <v>73</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>74</v>
@@ -11975,16 +11972,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B94" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D94" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="D94" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="E94" t="s" s="2">
         <v>73</v>
@@ -12009,10 +12006,10 @@
         <v>124</v>
       </c>
       <c r="M94" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -12080,13 +12077,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12183,13 +12180,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12286,13 +12283,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12318,13 +12315,13 @@
         <v>94</v>
       </c>
       <c r="M97" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
@@ -12332,7 +12329,7 @@
       </c>
       <c r="R97" s="2"/>
       <c r="S97" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>73</v>
@@ -12374,7 +12371,7 @@
         <v>73</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>80</v>
@@ -12391,13 +12388,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12420,13 +12417,13 @@
         <v>73</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -12477,7 +12474,7 @@
         <v>73</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>74</v>
@@ -12494,13 +12491,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12526,13 +12523,13 @@
         <v>94</v>
       </c>
       <c r="M99" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
@@ -12540,7 +12537,7 @@
       </c>
       <c r="R99" s="2"/>
       <c r="S99" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>73</v>
@@ -12582,7 +12579,7 @@
         <v>73</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>80</v>
@@ -12599,13 +12596,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12628,13 +12625,13 @@
         <v>73</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12685,7 +12682,7 @@
         <v>73</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>74</v>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="405">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T23:41:28+02:00</t>
+    <t>2023-04-19T23:48:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -571,7 +571,58 @@
     <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
   </si>
   <si>
-    <t>Appointment.cancelationReason.id</t>
+    <t>Appointment.serviceCategory</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+  </si>
+  <si>
+    <t>Appointment.serviceType</t>
+  </si>
+  <si>
+    <t>The specific service that is to be performed during this appointment</t>
+  </si>
+  <si>
+    <t>The specific service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>Appointment.specialty</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType</t>
+  </si>
+  <si>
+    <t>The style of appointment or patient that has been booked in the slot (not service type)</t>
+  </si>
+  <si>
+    <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -583,7 +634,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Appointment.cancelationReason.extension</t>
+    <t>Appointment.appointmentType.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -598,7 +649,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Appointment.cancelationReason.coding</t>
+    <t>Appointment.appointmentType.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -617,10 +668,59 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
-    <t>Appointment.cancelationReason.text</t>
+    <t>Appointment.appointmentType.coding:omsorgsNiva</t>
+  </si>
+  <si>
+    <t>omsorgsNiva</t>
+  </si>
+  <si>
+    <t>Volven 8406</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Volven</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8406</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.coding:kontaktType</t>
+  </si>
+  <si>
+    <t>kontaktType</t>
+  </si>
+  <si>
+    <t>Volven 8432</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.8432</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.coding:innbygger</t>
+  </si>
+  <si>
+    <t>innbygger</t>
+  </si>
+  <si>
+    <t>Volven 7617</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.7617</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.text</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -640,118 +740,6 @@
   </si>
   <si>
     <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>Appointment.serviceCategory</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
-  </si>
-  <si>
-    <t>Appointment.serviceType</t>
-  </si>
-  <si>
-    <t>The specific service that is to be performed during this appointment</t>
-  </si>
-  <si>
-    <t>The specific service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>Appointment.specialty</t>
-  </si>
-  <si>
-    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment</t>
-  </si>
-  <si>
-    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType</t>
-  </si>
-  <si>
-    <t>The style of appointment or patient that has been booked in the slot (not service type)</t>
-  </si>
-  <si>
-    <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.id</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.extension</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.coding:omsorgsNiva</t>
-  </si>
-  <si>
-    <t>omsorgsNiva</t>
-  </si>
-  <si>
-    <t>Volven 8406</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Volven</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8406</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.coding:kontaktType</t>
-  </si>
-  <si>
-    <t>kontaktType</t>
-  </si>
-  <si>
-    <t>Volven 8432</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.8432</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.coding:innbygger</t>
-  </si>
-  <si>
-    <t>innbygger</t>
-  </si>
-  <si>
-    <t>Volven 7617</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.7617</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.text</t>
   </si>
   <si>
     <t>Appointment.reasonCode</t>
@@ -1615,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25">
@@ -1631,7 +1619,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27">
@@ -1713,7 +1701,7 @@
         <v>27</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
@@ -1729,7 +1717,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40">
@@ -1750,10 +1738,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43">
@@ -1777,7 +1765,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46">
@@ -1793,7 +1781,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48">
@@ -1875,7 +1863,7 @@
         <v>27</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59">
@@ -1891,7 +1879,7 @@
         <v>31</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61">
@@ -1912,10 +1900,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64">
@@ -1939,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67">
@@ -1955,7 +1943,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69">
@@ -2037,7 +2025,7 @@
         <v>27</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80">
@@ -2053,7 +2041,7 @@
         <v>31</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82">
@@ -2074,10 +2062,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85">
@@ -2093,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87">
@@ -2101,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88">
@@ -2117,7 +2105,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90">
@@ -2125,7 +2113,7 @@
         <v>10</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91">
@@ -2171,7 +2159,7 @@
         <v>21</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97">
@@ -2199,7 +2187,7 @@
         <v>27</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101">
@@ -2215,7 +2203,7 @@
         <v>31</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103">
@@ -2236,10 +2224,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2237,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK100"/>
+  <dimension ref="A1:AK96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4095,7 +4083,7 @@
         <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>73</v>
@@ -4104,10 +4092,10 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>178</v>
@@ -4140,13 +4128,11 @@
         <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Z18" s="2"/>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>73</v>
@@ -4164,19 +4150,19 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -4191,7 +4177,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -4207,10 +4193,10 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>182</v>
@@ -4219,7 +4205,7 @@
         <v>183</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -4245,31 +4231,29 @@
         <v>73</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Z19" s="2"/>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -4281,7 +4265,7 @@
         <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -4315,20 +4299,16 @@
         <v>81</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>191</v>
-      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>73</v>
       </c>
@@ -4352,11 +4332,11 @@
         <v>73</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AB20" t="s" s="2">
         <v>73</v>
@@ -4374,7 +4354,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -4394,10 +4374,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4420,20 +4400,16 @@
         <v>81</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>73</v>
       </c>
@@ -4457,13 +4433,11 @@
         <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="Z21" s="2"/>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="AB21" t="s" s="2">
         <v>73</v>
@@ -4481,7 +4455,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -4501,10 +4475,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4515,7 +4489,7 @@
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>73</v>
@@ -4524,16 +4498,16 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -4560,11 +4534,13 @@
         <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Z22" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA22" t="s" s="2">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>73</v>
@@ -4582,19 +4558,19 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -4602,14 +4578,14 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
@@ -4625,19 +4601,19 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
@@ -4663,29 +4639,31 @@
         <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Z23" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA23" t="s" s="2">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -4697,7 +4675,7 @@
         <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -4705,10 +4683,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4731,16 +4709,20 @@
         <v>81</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Q24" t="s" s="2">
         <v>73</v>
       </c>
@@ -4764,29 +4746,29 @@
         <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="Z24" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA24" t="s" s="2">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AD24" s="2"/>
       <c r="AE24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -4806,12 +4788,14 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4832,16 +4816,20 @@
         <v>81</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>214</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Q25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4865,11 +4853,13 @@
         <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="Z25" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>73</v>
@@ -4887,13 +4877,13 @@
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4907,12 +4897,14 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="E26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4930,19 +4922,23 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Q26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4966,13 +4962,13 @@
         <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>73</v>
@@ -4990,19 +4986,19 @@
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -5010,21 +5006,23 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="E27" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>73</v>
@@ -5033,21 +5031,23 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="P27" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Q27" t="s" s="2">
         <v>73</v>
       </c>
@@ -5071,31 +5071,31 @@
         <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -5107,7 +5107,7 @@
         <v>73</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -5115,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5129,7 +5129,7 @@
         <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>73</v>
@@ -5141,19 +5141,19 @@
         <v>81</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>73</v>
@@ -5190,23 +5190,25 @@
         <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AD28" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AE28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5220,14 +5222,12 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>73</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>73</v>
@@ -5248,20 +5248,16 @@
         <v>81</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>73</v>
       </c>
@@ -5285,13 +5281,13 @@
         <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>73</v>
@@ -5309,7 +5305,7 @@
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -5329,14 +5325,12 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>73</v>
       </c>
@@ -5345,7 +5339,7 @@
         <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>73</v>
@@ -5354,23 +5348,19 @@
         <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>73</v>
       </c>
@@ -5394,13 +5384,13 @@
         <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>73</v>
@@ -5418,7 +5408,7 @@
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -5438,14 +5428,12 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>73</v>
       </c>
@@ -5463,23 +5451,21 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>73</v>
       </c>
@@ -5503,13 +5489,13 @@
         <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>73</v>
@@ -5527,13 +5513,13 @@
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>73</v>
@@ -5547,10 +5533,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5570,23 +5556,19 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>73</v>
       </c>
@@ -5634,7 +5616,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -5654,10 +5636,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5677,16 +5659,16 @@
         <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5713,13 +5695,13 @@
         <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>73</v>
@@ -5737,7 +5719,7 @@
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
@@ -5757,10 +5739,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5771,7 +5753,7 @@
         <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>73</v>
@@ -5780,16 +5762,16 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -5840,13 +5822,13 @@
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
@@ -5860,10 +5842,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5883,20 +5865,18 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>73</v>
@@ -5945,7 +5925,7 @@
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
@@ -5965,10 +5945,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5991,13 +5971,13 @@
         <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -6048,7 +6028,7 @@
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -6068,10 +6048,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6094,13 +6074,13 @@
         <v>73</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -6151,7 +6131,7 @@
         <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
@@ -6171,10 +6151,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6194,18 +6174,20 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>73</v>
@@ -6254,7 +6236,7 @@
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
@@ -6274,10 +6256,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6297,18 +6279,20 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>73</v>
@@ -6357,7 +6341,7 @@
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -6377,10 +6361,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6403,13 +6387,13 @@
         <v>73</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6460,7 +6444,7 @@
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
@@ -6480,14 +6464,14 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="s" s="2">
@@ -6506,13 +6490,13 @@
         <v>73</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6563,7 +6547,7 @@
         <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -6583,10 +6567,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6594,10 +6578,10 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>73</v>
@@ -6609,17 +6593,15 @@
         <v>73</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>73</v>
@@ -6668,19 +6650,19 @@
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>92</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43">
@@ -6688,10 +6670,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6714,17 +6696,15 @@
         <v>73</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>73</v>
@@ -6773,7 +6753,7 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>278</v>
+        <v>197</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -6785,7 +6765,7 @@
         <v>73</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
@@ -6793,21 +6773,21 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>73</v>
@@ -6819,15 +6799,17 @@
         <v>73</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>283</v>
+        <v>199</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>73</v>
@@ -6876,19 +6858,19 @@
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -6896,14 +6878,14 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
@@ -6916,22 +6898,26 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>73</v>
       </c>
@@ -6979,7 +6965,7 @@
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
@@ -6991,7 +6977,7 @@
         <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
@@ -6999,10 +6985,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7010,7 +6996,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -7022,18 +7008,20 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>291</v>
+        <v>172</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>73</v>
@@ -7058,13 +7046,13 @@
         <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="AB46" t="s" s="2">
         <v>73</v>
@@ -7082,10 +7070,10 @@
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
@@ -7094,7 +7082,7 @@
         <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>294</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
@@ -7102,10 +7090,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7125,16 +7113,16 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>178</v>
+        <v>306</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>179</v>
+        <v>307</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -7185,7 +7173,7 @@
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
@@ -7197,7 +7185,7 @@
         <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48">
@@ -7205,21 +7193,21 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>73</v>
@@ -7228,20 +7216,18 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>73</v>
@@ -7266,13 +7252,13 @@
         <v>73</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="AB48" t="s" s="2">
         <v>73</v>
@@ -7290,19 +7276,19 @@
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>185</v>
+        <v>308</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49">
@@ -7310,46 +7296,42 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>73</v>
       </c>
@@ -7373,13 +7355,13 @@
         <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>73</v>
@@ -7397,19 +7379,19 @@
         <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50">
@@ -7417,10 +7399,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7431,7 +7413,7 @@
         <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>73</v>
@@ -7440,20 +7422,18 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
         <v>73</v>
@@ -7478,13 +7458,13 @@
         <v>73</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>307</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>73</v>
@@ -7502,13 +7482,13 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>73</v>
@@ -7522,10 +7502,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7536,7 +7516,7 @@
         <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>73</v>
@@ -7545,18 +7525,20 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
         <v>73</v>
@@ -7605,13 +7587,13 @@
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>73</v>
@@ -7622,13 +7604,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7648,16 +7630,16 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>313</v>
+        <v>141</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>314</v>
+        <v>142</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -7684,13 +7666,13 @@
         <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
         <v>73</v>
@@ -7708,30 +7690,30 @@
         <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7739,7 +7721,7 @@
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -7751,16 +7733,16 @@
         <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -7787,13 +7769,13 @@
         <v>73</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
         <v>73</v>
@@ -7811,10 +7793,10 @@
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -7823,18 +7805,18 @@
         <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7845,7 +7827,7 @@
         <v>74</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>73</v>
@@ -7857,13 +7839,13 @@
         <v>73</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>323</v>
+        <v>124</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>324</v>
+        <v>125</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>325</v>
+        <v>126</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -7902,42 +7884,42 @@
         <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>322</v>
+        <v>202</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7945,10 +7927,10 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>73</v>
@@ -7960,16 +7942,16 @@
         <v>73</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>323</v>
+        <v>94</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -7977,7 +7959,7 @@
       </c>
       <c r="R55" s="2"/>
       <c r="S55" t="s" s="2">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>73</v>
@@ -8019,19 +8001,19 @@
         <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
@@ -8039,10 +8021,10 @@
         <v>141</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8065,13 +8047,13 @@
         <v>73</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>142</v>
+        <v>340</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -8122,30 +8104,30 @@
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>336</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>336</v>
+        <v>125</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8156,7 +8138,7 @@
         <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>73</v>
@@ -8168,13 +8150,13 @@
         <v>73</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8225,16 +8207,16 @@
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>73</v>
@@ -8242,13 +8224,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8259,7 +8241,7 @@
         <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>73</v>
@@ -8271,13 +8253,13 @@
         <v>73</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -8316,42 +8298,42 @@
         <v>73</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8359,10 +8341,10 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>73</v>
@@ -8374,24 +8356,22 @@
         <v>73</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" t="s" s="2">
-        <v>330</v>
+        <v>73</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>73</v>
@@ -8421,42 +8401,42 @@
         <v>73</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8464,7 +8444,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8479,22 +8459,24 @@
         <v>73</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>343</v>
+        <v>94</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>142</v>
+        <v>335</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" t="s" s="2">
-        <v>73</v>
+        <v>341</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>73</v>
@@ -8536,10 +8518,10 @@
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -8548,7 +8530,7 @@
         <v>73</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
@@ -8556,10 +8538,10 @@
         <v>146</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8570,7 +8552,7 @@
         <v>74</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>73</v>
@@ -8582,13 +8564,13 @@
         <v>73</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>146</v>
+        <v>344</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>147</v>
+        <v>345</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -8639,30 +8621,30 @@
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>336</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>336</v>
+        <v>125</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8673,7 +8655,7 @@
         <v>74</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>73</v>
@@ -8685,13 +8667,13 @@
         <v>73</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8742,16 +8724,16 @@
         <v>73</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>73</v>
@@ -8759,13 +8741,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8776,7 +8758,7 @@
         <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>73</v>
@@ -8788,13 +8770,13 @@
         <v>73</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -8833,42 +8815,42 @@
         <v>73</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8876,10 +8858,10 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>73</v>
@@ -8891,24 +8873,22 @@
         <v>73</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R64" s="2"/>
       <c r="S64" t="s" s="2">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>73</v>
@@ -8938,42 +8918,42 @@
         <v>73</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8981,7 +8961,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -8996,22 +8976,24 @@
         <v>73</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>347</v>
+        <v>94</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R65" s="2"/>
       <c r="S65" t="s" s="2">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>73</v>
@@ -9053,10 +9035,10 @@
         <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9065,7 +9047,7 @@
         <v>73</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
@@ -9073,10 +9055,10 @@
         <v>151</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9087,7 +9069,7 @@
         <v>74</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>73</v>
@@ -9099,13 +9081,13 @@
         <v>73</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>151</v>
+        <v>348</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>152</v>
+        <v>348</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -9132,13 +9114,13 @@
         <v>73</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>73</v>
@@ -9156,30 +9138,30 @@
         <v>73</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>336</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>336</v>
+        <v>125</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9190,7 +9172,7 @@
         <v>74</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>73</v>
@@ -9202,13 +9184,13 @@
         <v>73</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -9259,16 +9241,16 @@
         <v>73</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>73</v>
@@ -9276,13 +9258,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9293,7 +9275,7 @@
         <v>74</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>73</v>
@@ -9305,13 +9287,13 @@
         <v>73</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -9350,53 +9332,53 @@
         <v>73</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>73</v>
@@ -9408,16 +9390,16 @@
         <v>73</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>339</v>
+        <v>199</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>341</v>
+        <v>157</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
@@ -9425,7 +9407,7 @@
       </c>
       <c r="R69" s="2"/>
       <c r="S69" t="s" s="2">
-        <v>350</v>
+        <v>73</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>73</v>
@@ -9455,44 +9437,46 @@
         <v>73</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="E70" t="s" s="2">
         <v>73</v>
       </c>
@@ -9513,13 +9497,13 @@
         <v>73</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -9546,13 +9530,13 @@
         <v>73</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="AB70" t="s" s="2">
         <v>73</v>
@@ -9570,30 +9554,30 @@
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>342</v>
+        <v>202</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>125</v>
+        <v>360</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9604,7 +9588,7 @@
         <v>74</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>73</v>
@@ -9616,13 +9600,13 @@
         <v>73</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -9673,16 +9657,16 @@
         <v>73</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>73</v>
@@ -9690,13 +9674,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9707,7 +9691,7 @@
         <v>74</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>73</v>
@@ -9719,13 +9703,13 @@
         <v>73</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9764,53 +9748,53 @@
         <v>73</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>73</v>
@@ -9822,16 +9806,16 @@
         <v>73</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>182</v>
+        <v>335</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>183</v>
+        <v>336</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>157</v>
+        <v>337</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
@@ -9839,7 +9823,7 @@
       </c>
       <c r="R73" s="2"/>
       <c r="S73" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>73</v>
@@ -9869,46 +9853,44 @@
         <v>73</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>185</v>
+        <v>334</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>73</v>
       </c>
@@ -9929,13 +9911,13 @@
         <v>73</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -9962,13 +9944,11 @@
         <v>73</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Z74" s="2"/>
       <c r="AA74" t="s" s="2">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="AB74" t="s" s="2">
         <v>73</v>
@@ -9986,32 +9966,34 @@
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="E75" t="s" s="2">
         <v>73</v>
       </c>
@@ -10032,13 +10014,13 @@
         <v>73</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>178</v>
+        <v>372</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>179</v>
+        <v>373</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -10089,30 +10071,30 @@
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10123,7 +10105,7 @@
         <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>73</v>
@@ -10135,13 +10117,13 @@
         <v>73</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -10180,42 +10162,42 @@
         <v>73</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10223,10 +10205,10 @@
       </c>
       <c r="F77" s="2"/>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>73</v>
@@ -10238,24 +10220,22 @@
         <v>73</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R77" s="2"/>
       <c r="S77" t="s" s="2">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>73</v>
@@ -10285,42 +10265,42 @@
         <v>73</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10328,7 +10308,7 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -10343,22 +10323,24 @@
         <v>73</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R78" s="2"/>
       <c r="S78" t="s" s="2">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>73</v>
@@ -10376,11 +10358,13 @@
         <v>73</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Z78" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA78" t="s" s="2">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="AB78" t="s" s="2">
         <v>73</v>
@@ -10398,10 +10382,10 @@
         <v>73</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
@@ -10410,22 +10394,20 @@
         <v>73</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="D79" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>73</v>
       </c>
@@ -10446,13 +10428,13 @@
         <v>73</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>124</v>
+        <v>378</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10503,32 +10485,34 @@
         <v>73</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="D80" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="E80" t="s" s="2">
         <v>73</v>
       </c>
@@ -10537,7 +10521,7 @@
         <v>74</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>73</v>
@@ -10549,13 +10533,13 @@
         <v>73</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>178</v>
+        <v>381</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>179</v>
+        <v>382</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -10606,30 +10590,30 @@
         <v>73</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10640,7 +10624,7 @@
         <v>74</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>73</v>
@@ -10652,13 +10636,13 @@
         <v>73</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -10697,42 +10681,42 @@
         <v>73</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10740,10 +10724,10 @@
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>73</v>
@@ -10755,24 +10739,22 @@
         <v>73</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R82" s="2"/>
       <c r="S82" t="s" s="2">
-        <v>375</v>
+        <v>73</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>73</v>
@@ -10802,42 +10784,42 @@
         <v>73</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AE82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10845,7 +10827,7 @@
       </c>
       <c r="F83" s="2"/>
       <c r="G83" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -10860,22 +10842,24 @@
         <v>73</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>382</v>
+        <v>94</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R83" s="2"/>
       <c r="S83" t="s" s="2">
-        <v>73</v>
+        <v>380</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>73</v>
@@ -10917,10 +10901,10 @@
         <v>73</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
@@ -10929,22 +10913,20 @@
         <v>73</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>73</v>
       </c>
@@ -10953,7 +10935,7 @@
         <v>74</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>73</v>
@@ -10965,13 +10947,13 @@
         <v>73</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>124</v>
+        <v>387</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -11022,32 +11004,34 @@
         <v>73</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="D85" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="E85" t="s" s="2">
         <v>73</v>
       </c>
@@ -11068,13 +11052,13 @@
         <v>73</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>179</v>
+        <v>391</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -11125,30 +11109,30 @@
         <v>73</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11159,7 +11143,7 @@
         <v>74</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>73</v>
@@ -11171,13 +11155,13 @@
         <v>73</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -11216,42 +11200,42 @@
         <v>73</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11259,10 +11243,10 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>73</v>
@@ -11274,24 +11258,22 @@
         <v>73</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R87" s="2"/>
       <c r="S87" t="s" s="2">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>73</v>
@@ -11321,42 +11303,42 @@
         <v>73</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AE87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11364,7 +11346,7 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -11379,22 +11361,24 @@
         <v>73</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>391</v>
+        <v>94</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R88" s="2"/>
       <c r="S88" t="s" s="2">
-        <v>73</v>
+        <v>389</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>73</v>
@@ -11436,10 +11420,10 @@
         <v>73</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
@@ -11448,22 +11432,20 @@
         <v>73</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="D89" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>73</v>
       </c>
@@ -11484,13 +11466,13 @@
         <v>73</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>124</v>
+        <v>262</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -11541,32 +11523,34 @@
         <v>73</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>396</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="D90" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="E90" t="s" s="2">
         <v>73</v>
       </c>
@@ -11587,13 +11571,13 @@
         <v>73</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>178</v>
+        <v>398</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>179</v>
+        <v>399</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11644,30 +11628,30 @@
         <v>73</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11678,7 +11662,7 @@
         <v>74</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>73</v>
@@ -11690,13 +11674,13 @@
         <v>73</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -11735,42 +11719,42 @@
         <v>73</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11778,10 +11762,10 @@
       </c>
       <c r="F92" s="2"/>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>73</v>
@@ -11793,24 +11777,22 @@
         <v>73</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R92" s="2"/>
       <c r="S92" t="s" s="2">
-        <v>393</v>
+        <v>73</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>73</v>
@@ -11840,42 +11822,42 @@
         <v>73</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AE92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11883,7 +11865,7 @@
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -11898,22 +11880,24 @@
         <v>73</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R93" s="2"/>
       <c r="S93" t="s" s="2">
-        <v>73</v>
+        <v>397</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>73</v>
@@ -11955,10 +11939,10 @@
         <v>73</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>80</v>
@@ -11967,22 +11951,20 @@
         <v>73</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="D94" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>73</v>
       </c>
@@ -12003,13 +11985,13 @@
         <v>73</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>403</v>
+        <v>340</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -12060,30 +12042,30 @@
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12091,7 +12073,7 @@
       </c>
       <c r="F95" s="2"/>
       <c r="G95" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -12106,22 +12088,24 @@
         <v>73</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>178</v>
+        <v>335</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="R95" s="2"/>
       <c r="S95" t="s" s="2">
-        <v>73</v>
+        <v>351</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>73</v>
@@ -12163,10 +12147,10 @@
         <v>73</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>80</v>
@@ -12180,13 +12164,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12209,13 +12193,13 @@
         <v>73</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>126</v>
+        <v>340</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -12254,446 +12238,30 @@
         <v>73</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F97" s="2"/>
-      <c r="G97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R97" s="2"/>
-      <c r="S97" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F98" s="2"/>
-      <c r="G98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R98" s="2"/>
-      <c r="S98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F99" s="2"/>
-      <c r="G99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R99" s="2"/>
-      <c r="S99" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F100" s="2"/>
-      <c r="G100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R100" s="2"/>
-      <c r="S100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK100" t="s" s="2">
         <v>92</v>
       </c>
     </row>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T23:48:27+02:00</t>
+    <t>2023-04-27T14:52:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-20T11:38:03+02:00</t>
+    <t>2023-07-20T13:16:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-20T13:16:53+02:00</t>
+    <t>2023-07-21T08:53:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -974,7 +974,7 @@
     <t>no-basis-shortnotice</t>
   </si>
   <si>
-    <t>Pasient can come on short notice.</t>
+    <t>Patient can come on short notice.</t>
   </si>
   <si>
     <t>AppointmentResponse.extension:shortNotice.id</t>
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t>Pasient can come on short notice. Response is boolean</t>
+    <t>Patient can come on short notice. Response is boolean</t>
   </si>
   <si>
     <t>Extension.value[x]</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T08:53:22+02:00</t>
+    <t>2023-07-21T09:07:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-Appointment</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Appointment</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>2.2.0-alpha</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T09:07:54+02:00</t>
+    <t>2023-08-24T14:49:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,6 +142,10 @@
     <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s).</t>
   </si>
   <si>
+    <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
+app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Appointment.id</t>
   </si>
   <si>
@@ -313,7 +317,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-virtual-service}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-virtual-service}
 </t>
   </si>
   <si>
@@ -333,7 +337,7 @@
     <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-group}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-group}
 </t>
   </si>
   <si>
@@ -349,7 +353,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-partof}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-partof}
 </t>
   </si>
   <si>
@@ -528,7 +532,7 @@
     <t>Recomended code systems for no-basis-Appointment.</t>
   </si>
   <si>
-    <t>Recomended code systems for n-basis-Appointment. The reconmended code systems might not be suficient for defining appointment type and in an implemented profile - some other coding might be needed.</t>
+    <t>Recomended code systems for no-basis-Appointment. The recomended code systems might not be suficient for defining appointment type and in an implemented profile - some other coding might be needed.</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
@@ -919,7 +923,7 @@
     <t>no-basis-AppointmentResponse</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-AppointmentResponse</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-AppointmentResponse</t>
   </si>
   <si>
     <t>NoBasisAppointmentResponse</t>
@@ -940,6 +944,10 @@
     <t>A reply to an appointment request for a patient and/or practitioner(s), such as a confirmation or rejection.</t>
   </si>
   <si>
+    <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
+  </si>
+  <si>
     <t>AppointmentResponse.id</t>
   </si>
   <si>
@@ -967,7 +975,7 @@
     <t>shortNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-shortnotice}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice}
 </t>
   </si>
   <si>
@@ -1004,7 +1012,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-shortnotice</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -1103,7 +1111,7 @@
     <t>This comment is particularly important when the responder is declining, tentatively accepting or requesting another time to indicate the reasons why.</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-group</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-group</t>
   </si>
   <si>
     <t>NoBasisGroup</t>
@@ -1130,13 +1138,13 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-partof</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-partof</t>
   </si>
   <si>
     <t>NoBasisPartOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/no-basis-Appointment)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Appointment)
 </t>
   </si>
   <si>
@@ -1158,7 +1166,7 @@
     <t>no-basis-virtual-service</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-virtual-service</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-virtual-service</t>
   </si>
   <si>
     <t>NoBasisVirtualService</t>
@@ -1212,7 +1220,7 @@
     <t xml:space="preserve">The valuesett inherits all codes from http://hl7.org/fhir/contact-point-system and http://hl7.org/fhir/virtual-service-type. Virtual-service-type is from R5. </t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/no-basis-virtual-service-type-vs</t>
+    <t>http://hl7.no/fhir/ValueSet/no-basis-virtual-service-type-vs</t>
   </si>
   <si>
     <t>Extension.extension:virtualAddress</t>
@@ -1634,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23">
@@ -1642,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24">
@@ -1658,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26">
@@ -1666,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27">
@@ -1712,7 +1720,7 @@
         <v>20</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33">
@@ -1748,7 +1756,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
@@ -1756,7 +1764,7 @@
         <v>30</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39">
@@ -1788,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
@@ -1796,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44">
@@ -1812,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46">
@@ -1820,7 +1828,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
@@ -1866,7 +1874,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
@@ -1894,7 +1902,7 @@
         <v>26</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57">
@@ -1902,7 +1910,7 @@
         <v>28</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58">
@@ -1910,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59">
@@ -1931,10 +1939,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62">
@@ -1950,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64">
@@ -1958,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65">
@@ -1974,7 +1982,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67">
@@ -1982,7 +1990,7 @@
         <v>10</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68">
@@ -2028,7 +2036,7 @@
         <v>20</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74">
@@ -2056,7 +2064,7 @@
         <v>26</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78">
@@ -2064,7 +2072,7 @@
         <v>28</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79">
@@ -2072,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80">
@@ -2093,10 +2101,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83">
@@ -2112,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85">
@@ -2120,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86">
@@ -2136,7 +2144,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88">
@@ -2144,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89">
@@ -2190,7 +2198,7 @@
         <v>20</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95">
@@ -2218,7 +2226,7 @@
         <v>26</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99">
@@ -2226,7 +2234,7 @@
         <v>28</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2242,7 @@
         <v>30</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="101">
@@ -2255,10 +2263,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104">
@@ -2274,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106">
@@ -2282,7 +2290,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107">
@@ -2298,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109">
@@ -2306,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110">
@@ -2352,7 +2360,7 @@
         <v>20</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="116">
@@ -2380,7 +2388,7 @@
         <v>26</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120">
@@ -2388,7 +2396,7 @@
         <v>28</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121">
@@ -2396,7 +2404,7 @@
         <v>30</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122">
@@ -2417,10 +2425,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2575,7 +2583,7 @@
         <v>36</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -2583,10 +2591,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
@@ -2597,7 +2605,7 @@
         <v>37</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s" s="2">
         <v>36</v>
@@ -2606,19 +2614,19 @@
         <v>36</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
@@ -2668,13 +2676,13 @@
         <v>36</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>36</v>
@@ -2688,10 +2696,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
@@ -2702,7 +2710,7 @@
         <v>37</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>36</v>
@@ -2711,16 +2719,16 @@
         <v>36</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -2771,19 +2779,19 @@
         <v>36</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -2791,10 +2799,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -2805,28 +2813,28 @@
         <v>37</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
@@ -2876,19 +2884,19 @@
         <v>36</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -2896,10 +2904,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2910,7 +2918,7 @@
         <v>37</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>36</v>
@@ -2922,16 +2930,16 @@
         <v>36</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2957,13 +2965,13 @@
         <v>36</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s" s="2">
         <v>36</v>
@@ -2981,19 +2989,19 @@
         <v>36</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -3001,21 +3009,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>36</v>
@@ -3027,16 +3035,16 @@
         <v>36</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -3086,19 +3094,19 @@
         <v>36</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -3106,14 +3114,14 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
@@ -3132,16 +3140,16 @@
         <v>36</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -3191,7 +3199,7 @@
         <v>36</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -3211,10 +3219,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3237,13 +3245,13 @@
         <v>36</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -3282,17 +3290,17 @@
         <v>36</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -3304,7 +3312,7 @@
         <v>36</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -3312,13 +3320,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s" s="2">
         <v>36</v>
@@ -3331,7 +3339,7 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>36</v>
@@ -3340,13 +3348,13 @@
         <v>36</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -3397,7 +3405,7 @@
         <v>36</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -3406,10 +3414,10 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -3417,13 +3425,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s" s="2">
         <v>36</v>
@@ -3433,10 +3441,10 @@
         <v>37</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>36</v>
@@ -3445,13 +3453,13 @@
         <v>36</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -3502,7 +3510,7 @@
         <v>36</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -3511,10 +3519,10 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -3522,13 +3530,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>36</v>
@@ -3538,10 +3546,10 @@
         <v>37</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>36</v>
@@ -3550,13 +3558,13 @@
         <v>36</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -3607,7 +3615,7 @@
         <v>36</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -3616,10 +3624,10 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -3627,14 +3635,14 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
@@ -3647,25 +3655,25 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q12" t="s" s="2">
         <v>36</v>
@@ -3714,7 +3722,7 @@
         <v>36</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -3726,7 +3734,7 @@
         <v>36</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
@@ -3734,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3757,16 +3765,16 @@
         <v>36</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -3817,7 +3825,7 @@
         <v>36</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -3829,7 +3837,7 @@
         <v>36</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -3837,10 +3845,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3848,31 +3856,31 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
@@ -3898,13 +3906,13 @@
         <v>36</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB14" t="s" s="2">
         <v>36</v>
@@ -3922,19 +3930,19 @@
         <v>36</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -3942,10 +3950,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3956,7 +3964,7 @@
         <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>36</v>
@@ -3965,16 +3973,16 @@
         <v>36</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4001,11 +4009,11 @@
         <v>36</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>36</v>
@@ -4023,19 +4031,19 @@
         <v>36</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -4043,10 +4051,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4066,16 +4074,16 @@
         <v>36</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4102,11 +4110,11 @@
         <v>36</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>36</v>
@@ -4124,7 +4132,7 @@
         <v>36</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -4136,7 +4144,7 @@
         <v>36</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -4144,10 +4152,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4167,19 +4175,19 @@
         <v>36</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
@@ -4205,11 +4213,11 @@
         <v>36</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>36</v>
@@ -4227,7 +4235,7 @@
         <v>36</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -4239,7 +4247,7 @@
         <v>36</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -4247,10 +4255,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4270,16 +4278,16 @@
         <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4306,11 +4314,11 @@
         <v>36</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>36</v>
@@ -4328,7 +4336,7 @@
         <v>36</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
@@ -4340,7 +4348,7 @@
         <v>36</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -4348,10 +4356,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4362,7 +4370,7 @@
         <v>37</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>36</v>
@@ -4371,16 +4379,16 @@
         <v>36</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -4407,11 +4415,11 @@
         <v>36</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>36</v>
@@ -4429,19 +4437,19 @@
         <v>36</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -4449,10 +4457,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4463,7 +4471,7 @@
         <v>37</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>36</v>
@@ -4475,13 +4483,13 @@
         <v>36</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -4532,13 +4540,13 @@
         <v>36</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>36</v>
@@ -4552,14 +4560,14 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
@@ -4578,16 +4586,16 @@
         <v>36</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
@@ -4625,19 +4633,19 @@
         <v>36</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>37</v>
@@ -4649,7 +4657,7 @@
         <v>36</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
@@ -4657,10 +4665,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4680,22 +4688,22 @@
         <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>36</v>
@@ -4732,17 +4740,17 @@
         <v>36</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>37</v>
@@ -4754,7 +4762,7 @@
         <v>36</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
@@ -4762,13 +4770,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>36</v>
@@ -4778,7 +4786,7 @@
         <v>37</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>36</v>
@@ -4787,22 +4795,22 @@
         <v>36</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23" t="s" s="2">
         <v>36</v>
@@ -4827,13 +4835,13 @@
         <v>36</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>36</v>
@@ -4851,7 +4859,7 @@
         <v>36</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>37</v>
@@ -4863,7 +4871,7 @@
         <v>36</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
@@ -4871,13 +4879,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>36</v>
@@ -4887,7 +4895,7 @@
         <v>37</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>36</v>
@@ -4896,22 +4904,22 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" t="s" s="2">
         <v>36</v>
@@ -4936,13 +4944,13 @@
         <v>36</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>36</v>
@@ -4960,7 +4968,7 @@
         <v>36</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>37</v>
@@ -4972,7 +4980,7 @@
         <v>36</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
@@ -4980,13 +4988,13 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E25" t="s" s="2">
         <v>36</v>
@@ -4996,7 +5004,7 @@
         <v>37</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>36</v>
@@ -5005,22 +5013,22 @@
         <v>36</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>36</v>
@@ -5045,13 +5053,13 @@
         <v>36</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>36</v>
@@ -5069,7 +5077,7 @@
         <v>36</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>37</v>
@@ -5081,7 +5089,7 @@
         <v>36</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -5089,10 +5097,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5103,7 +5111,7 @@
         <v>37</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>36</v>
@@ -5112,22 +5120,22 @@
         <v>36</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>36</v>
@@ -5176,19 +5184,19 @@
         <v>36</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -5196,10 +5204,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5219,16 +5227,16 @@
         <v>36</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -5255,13 +5263,13 @@
         <v>36</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>36</v>
@@ -5279,7 +5287,7 @@
         <v>36</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>37</v>
@@ -5291,7 +5299,7 @@
         <v>36</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -5299,10 +5307,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5325,13 +5333,13 @@
         <v>36</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -5382,7 +5390,7 @@
         <v>36</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>37</v>
@@ -5394,7 +5402,7 @@
         <v>36</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -5402,10 +5410,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5416,7 +5424,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>36</v>
@@ -5428,16 +5436,16 @@
         <v>36</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5487,19 +5495,19 @@
         <v>36</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
@@ -5507,10 +5515,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5521,7 +5529,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>36</v>
@@ -5533,13 +5541,13 @@
         <v>36</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -5590,19 +5598,19 @@
         <v>36</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
@@ -5610,10 +5618,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5636,13 +5644,13 @@
         <v>36</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5693,7 +5701,7 @@
         <v>36</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>37</v>
@@ -5705,7 +5713,7 @@
         <v>36</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
@@ -5713,10 +5721,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5727,7 +5735,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>36</v>
@@ -5736,16 +5744,16 @@
         <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -5796,19 +5804,19 @@
         <v>36</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
@@ -5816,10 +5824,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5830,7 +5838,7 @@
         <v>37</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>36</v>
@@ -5839,16 +5847,16 @@
         <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -5899,19 +5907,19 @@
         <v>36</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -5919,10 +5927,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5933,7 +5941,7 @@
         <v>37</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>36</v>
@@ -5945,13 +5953,13 @@
         <v>36</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -6002,19 +6010,19 @@
         <v>36</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
@@ -6022,10 +6030,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6048,13 +6056,13 @@
         <v>36</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -6105,7 +6113,7 @@
         <v>36</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>37</v>
@@ -6117,7 +6125,7 @@
         <v>36</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
@@ -6125,10 +6133,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6139,7 +6147,7 @@
         <v>37</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>36</v>
@@ -6151,16 +6159,16 @@
         <v>36</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
@@ -6210,19 +6218,19 @@
         <v>36</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
@@ -6230,10 +6238,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6244,7 +6252,7 @@
         <v>37</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>36</v>
@@ -6256,16 +6264,16 @@
         <v>36</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
@@ -6315,19 +6323,19 @@
         <v>36</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
@@ -6335,10 +6343,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6349,7 +6357,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>36</v>
@@ -6361,13 +6369,13 @@
         <v>36</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -6418,19 +6426,19 @@
         <v>36</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
@@ -6438,14 +6446,14 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
@@ -6464,13 +6472,13 @@
         <v>36</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -6521,7 +6529,7 @@
         <v>36</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>37</v>
@@ -6533,7 +6541,7 @@
         <v>36</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
@@ -6541,10 +6549,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6552,7 +6560,7 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6567,13 +6575,13 @@
         <v>36</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -6624,10 +6632,10 @@
         <v>36</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
@@ -6636,7 +6644,7 @@
         <v>36</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41">
@@ -6644,10 +6652,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6658,7 +6666,7 @@
         <v>37</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>36</v>
@@ -6670,13 +6678,13 @@
         <v>36</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6727,13 +6735,13 @@
         <v>36</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>36</v>
@@ -6747,14 +6755,14 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -6773,16 +6781,16 @@
         <v>36</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -6832,7 +6840,7 @@
         <v>36</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>37</v>
@@ -6844,7 +6852,7 @@
         <v>36</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
@@ -6852,14 +6860,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -6872,25 +6880,25 @@
         <v>36</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>36</v>
@@ -6939,7 +6947,7 @@
         <v>36</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>37</v>
@@ -6951,7 +6959,7 @@
         <v>36</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
@@ -6959,10 +6967,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6982,19 +6990,19 @@
         <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
@@ -7020,13 +7028,13 @@
         <v>36</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AB44" t="s" s="2">
         <v>36</v>
@@ -7044,7 +7052,7 @@
         <v>36</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>37</v>
@@ -7056,7 +7064,7 @@
         <v>36</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
@@ -7064,10 +7072,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7078,7 +7086,7 @@
         <v>37</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>36</v>
@@ -7087,16 +7095,16 @@
         <v>36</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -7147,19 +7155,19 @@
         <v>36</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
@@ -7167,10 +7175,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7181,7 +7189,7 @@
         <v>37</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>36</v>
@@ -7190,16 +7198,16 @@
         <v>36</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -7226,13 +7234,13 @@
         <v>36</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB46" t="s" s="2">
         <v>36</v>
@@ -7250,19 +7258,19 @@
         <v>36</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
@@ -7270,10 +7278,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7281,10 +7289,10 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>36</v>
@@ -7293,16 +7301,16 @@
         <v>36</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -7329,13 +7337,13 @@
         <v>36</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AB47" t="s" s="2">
         <v>36</v>
@@ -7353,19 +7361,19 @@
         <v>36</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
@@ -7373,10 +7381,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7387,7 +7395,7 @@
         <v>37</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>36</v>
@@ -7399,13 +7407,13 @@
         <v>36</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -7456,19 +7464,19 @@
         <v>36</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49">
@@ -7476,10 +7484,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7502,16 +7510,16 @@
         <v>36</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
@@ -7561,7 +7569,7 @@
         <v>36</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>37</v>
@@ -7573,18 +7581,18 @@
         <v>36</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7610,10 +7618,10 @@
         <v>39</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -7664,7 +7672,7 @@
         <v>36</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>37</v>
@@ -7676,18 +7684,18 @@
         <v>36</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>36</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7698,7 +7706,7 @@
         <v>37</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>36</v>
@@ -7707,19 +7715,19 @@
         <v>36</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
@@ -7769,13 +7777,13 @@
         <v>36</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>36</v>
@@ -7786,13 +7794,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7803,7 +7811,7 @@
         <v>37</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>36</v>
@@ -7812,16 +7820,16 @@
         <v>36</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -7872,30 +7880,30 @@
         <v>36</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7906,28 +7914,28 @@
         <v>37</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
@@ -7977,30 +7985,30 @@
         <v>36</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8011,7 +8019,7 @@
         <v>37</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>36</v>
@@ -8023,16 +8031,16 @@
         <v>36</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
@@ -8058,13 +8066,13 @@
         <v>36</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB54" t="s" s="2">
         <v>36</v>
@@ -8082,41 +8090,41 @@
         <v>36</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>36</v>
@@ -8128,16 +8136,16 @@
         <v>36</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -8187,34 +8195,34 @@
         <v>36</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
@@ -8233,16 +8241,16 @@
         <v>36</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
@@ -8292,7 +8300,7 @@
         <v>36</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>37</v>
@@ -8309,13 +8317,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8338,13 +8346,13 @@
         <v>36</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -8383,17 +8391,17 @@
         <v>36</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD57" s="2"/>
       <c r="AE57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>37</v>
@@ -8405,21 +8413,21 @@
         <v>36</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E58" t="s" s="2">
         <v>36</v>
@@ -8429,7 +8437,7 @@
         <v>37</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>36</v>
@@ -8441,13 +8449,13 @@
         <v>36</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -8498,7 +8506,7 @@
         <v>36</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>37</v>
@@ -8507,21 +8515,21 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8532,7 +8540,7 @@
         <v>37</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>36</v>
@@ -8544,13 +8552,13 @@
         <v>36</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -8601,13 +8609,13 @@
         <v>36</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>36</v>
@@ -8618,13 +8626,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8647,13 +8655,13 @@
         <v>36</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -8692,19 +8700,19 @@
         <v>36</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>37</v>
@@ -8716,18 +8724,18 @@
         <v>36</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8735,10 +8743,10 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>36</v>
@@ -8750,16 +8758,16 @@
         <v>36</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -8767,7 +8775,7 @@
       </c>
       <c r="R61" s="2"/>
       <c r="S61" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>36</v>
@@ -8809,13 +8817,13 @@
         <v>36</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>36</v>
@@ -8826,13 +8834,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8843,7 +8851,7 @@
         <v>37</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>36</v>
@@ -8855,13 +8863,13 @@
         <v>36</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -8912,34 +8920,34 @@
         <v>36</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" t="s" s="2">
@@ -8952,25 +8960,25 @@
         <v>36</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P63" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q63" t="s" s="2">
         <v>36</v>
@@ -9019,7 +9027,7 @@
         <v>36</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>37</v>
@@ -9031,18 +9039,18 @@
         <v>36</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9062,16 +9070,16 @@
         <v>36</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -9122,7 +9130,7 @@
         <v>36</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>37</v>
@@ -9134,18 +9142,18 @@
         <v>36</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9153,10 +9161,10 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>36</v>
@@ -9165,16 +9173,16 @@
         <v>36</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -9225,30 +9233,30 @@
         <v>36</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9259,7 +9267,7 @@
         <v>37</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>36</v>
@@ -9271,16 +9279,16 @@
         <v>36</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
@@ -9330,30 +9338,30 @@
         <v>36</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9364,7 +9372,7 @@
         <v>37</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>36</v>
@@ -9376,13 +9384,13 @@
         <v>36</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -9433,30 +9441,30 @@
         <v>36</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9476,19 +9484,19 @@
         <v>36</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
@@ -9514,13 +9522,13 @@
         <v>36</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AB68" t="s" s="2">
         <v>36</v>
@@ -9538,7 +9546,7 @@
         <v>36</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>37</v>
@@ -9550,18 +9558,18 @@
         <v>36</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9572,7 +9580,7 @@
         <v>37</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>36</v>
@@ -9581,16 +9589,16 @@
         <v>36</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -9641,30 +9649,30 @@
         <v>36</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9672,31 +9680,31 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
@@ -9722,13 +9730,13 @@
         <v>36</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AB70" t="s" s="2">
         <v>36</v>
@@ -9746,30 +9754,30 @@
         <v>36</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9780,7 +9788,7 @@
         <v>37</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>36</v>
@@ -9792,16 +9800,16 @@
         <v>36</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
@@ -9851,30 +9859,30 @@
         <v>36</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9885,7 +9893,7 @@
         <v>37</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>36</v>
@@ -9900,10 +9908,10 @@
         <v>39</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -9954,7 +9962,7 @@
         <v>36</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>37</v>
@@ -9963,21 +9971,21 @@
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9988,7 +9996,7 @@
         <v>37</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>36</v>
@@ -10000,13 +10008,13 @@
         <v>36</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -10057,13 +10065,13 @@
         <v>36</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>36</v>
@@ -10074,13 +10082,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10103,13 +10111,13 @@
         <v>36</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -10148,19 +10156,19 @@
         <v>36</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>37</v>
@@ -10172,18 +10180,18 @@
         <v>36</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10191,10 +10199,10 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>36</v>
@@ -10206,16 +10214,16 @@
         <v>36</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
@@ -10223,7 +10231,7 @@
       </c>
       <c r="R75" s="2"/>
       <c r="S75" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>36</v>
@@ -10265,13 +10273,13 @@
         <v>36</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>36</v>
@@ -10282,13 +10290,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10299,7 +10307,7 @@
         <v>37</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>36</v>
@@ -10311,13 +10319,13 @@
         <v>36</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -10368,30 +10376,30 @@
         <v>36</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10417,10 +10425,10 @@
         <v>39</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -10471,7 +10479,7 @@
         <v>36</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>37</v>
@@ -10480,21 +10488,21 @@
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10505,7 +10513,7 @@
         <v>37</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>36</v>
@@ -10517,13 +10525,13 @@
         <v>36</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -10574,13 +10582,13 @@
         <v>36</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>36</v>
@@ -10591,13 +10599,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10620,13 +10628,13 @@
         <v>36</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10665,19 +10673,19 @@
         <v>36</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE79" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>37</v>
@@ -10689,18 +10697,18 @@
         <v>36</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10708,10 +10716,10 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>36</v>
@@ -10723,16 +10731,16 @@
         <v>36</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
@@ -10740,7 +10748,7 @@
       </c>
       <c r="R80" s="2"/>
       <c r="S80" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>36</v>
@@ -10782,13 +10790,13 @@
         <v>36</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>36</v>
@@ -10799,13 +10807,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10816,7 +10824,7 @@
         <v>37</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>36</v>
@@ -10828,13 +10836,13 @@
         <v>36</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -10885,30 +10893,30 @@
         <v>36</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10919,7 +10927,7 @@
         <v>37</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>36</v>
@@ -10934,10 +10942,10 @@
         <v>39</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -10988,7 +10996,7 @@
         <v>36</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>37</v>
@@ -10997,21 +11005,21 @@
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11022,7 +11030,7 @@
         <v>37</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>36</v>
@@ -11034,13 +11042,13 @@
         <v>36</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -11091,13 +11099,13 @@
         <v>36</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>36</v>
@@ -11108,13 +11116,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11137,13 +11145,13 @@
         <v>36</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -11182,19 +11190,19 @@
         <v>36</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>37</v>
@@ -11206,18 +11214,18 @@
         <v>36</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11225,10 +11233,10 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>36</v>
@@ -11240,16 +11248,16 @@
         <v>36</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
@@ -11257,7 +11265,7 @@
       </c>
       <c r="R85" s="2"/>
       <c r="S85" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>36</v>
@@ -11299,13 +11307,13 @@
         <v>36</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>36</v>
@@ -11316,13 +11324,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11333,7 +11341,7 @@
         <v>37</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>36</v>
@@ -11345,13 +11353,13 @@
         <v>36</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -11402,30 +11410,30 @@
         <v>36</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11451,10 +11459,10 @@
         <v>39</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -11505,7 +11513,7 @@
         <v>36</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>37</v>
@@ -11514,21 +11522,21 @@
         <v>38</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11539,7 +11547,7 @@
         <v>37</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>36</v>
@@ -11551,13 +11559,13 @@
         <v>36</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -11608,13 +11616,13 @@
         <v>36</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>36</v>
@@ -11625,17 +11633,17 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
@@ -11654,16 +11662,16 @@
         <v>36</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
@@ -11701,19 +11709,19 @@
         <v>36</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>37</v>
@@ -11725,21 +11733,21 @@
         <v>36</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E90" t="s" s="2">
         <v>36</v>
@@ -11749,7 +11757,7 @@
         <v>37</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>36</v>
@@ -11761,13 +11769,13 @@
         <v>36</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11818,7 +11826,7 @@
         <v>36</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>37</v>
@@ -11830,18 +11838,18 @@
         <v>36</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11852,7 +11860,7 @@
         <v>37</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>36</v>
@@ -11864,13 +11872,13 @@
         <v>36</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -11921,13 +11929,13 @@
         <v>36</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>36</v>
@@ -11938,13 +11946,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11967,13 +11975,13 @@
         <v>36</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -12012,19 +12020,19 @@
         <v>36</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE92" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>37</v>
@@ -12036,18 +12044,18 @@
         <v>36</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12055,10 +12063,10 @@
       </c>
       <c r="F93" s="2"/>
       <c r="G93" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>36</v>
@@ -12070,16 +12078,16 @@
         <v>36</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
@@ -12087,7 +12095,7 @@
       </c>
       <c r="R93" s="2"/>
       <c r="S93" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>36</v>
@@ -12129,13 +12137,13 @@
         <v>36</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>36</v>
@@ -12146,13 +12154,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12163,7 +12171,7 @@
         <v>37</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>36</v>
@@ -12175,13 +12183,13 @@
         <v>36</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -12208,11 +12216,11 @@
         <v>36</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z94" s="2"/>
       <c r="AA94" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>36</v>
@@ -12230,33 +12238,33 @@
         <v>36</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E95" t="s" s="2">
         <v>36</v>
@@ -12266,7 +12274,7 @@
         <v>37</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>36</v>
@@ -12278,13 +12286,13 @@
         <v>36</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -12335,7 +12343,7 @@
         <v>36</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>37</v>
@@ -12347,18 +12355,18 @@
         <v>36</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12369,7 +12377,7 @@
         <v>37</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>36</v>
@@ -12381,13 +12389,13 @@
         <v>36</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -12438,13 +12446,13 @@
         <v>36</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>36</v>
@@ -12455,13 +12463,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12484,13 +12492,13 @@
         <v>36</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -12529,19 +12537,19 @@
         <v>36</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>37</v>
@@ -12553,18 +12561,18 @@
         <v>36</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12572,10 +12580,10 @@
       </c>
       <c r="F98" s="2"/>
       <c r="G98" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>36</v>
@@ -12587,16 +12595,16 @@
         <v>36</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
@@ -12604,7 +12612,7 @@
       </c>
       <c r="R98" s="2"/>
       <c r="S98" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>36</v>
@@ -12646,13 +12654,13 @@
         <v>36</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>36</v>
@@ -12663,13 +12671,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12680,7 +12688,7 @@
         <v>37</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>36</v>
@@ -12692,13 +12700,13 @@
         <v>36</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -12749,33 +12757,33 @@
         <v>36</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E100" t="s" s="2">
         <v>36</v>
@@ -12797,13 +12805,13 @@
         <v>36</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12854,7 +12862,7 @@
         <v>36</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>37</v>
@@ -12866,18 +12874,18 @@
         <v>36</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12888,7 +12896,7 @@
         <v>37</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>36</v>
@@ -12900,13 +12908,13 @@
         <v>36</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -12957,13 +12965,13 @@
         <v>36</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>36</v>
@@ -12974,13 +12982,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13003,13 +13011,13 @@
         <v>36</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -13048,19 +13056,19 @@
         <v>36</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE102" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>37</v>
@@ -13072,18 +13080,18 @@
         <v>36</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13091,10 +13099,10 @@
       </c>
       <c r="F103" s="2"/>
       <c r="G103" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>36</v>
@@ -13106,16 +13114,16 @@
         <v>36</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13123,7 +13131,7 @@
       </c>
       <c r="R103" s="2"/>
       <c r="S103" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="T103" t="s" s="2">
         <v>36</v>
@@ -13165,13 +13173,13 @@
         <v>36</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>36</v>
@@ -13182,13 +13190,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13199,7 +13207,7 @@
         <v>37</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>36</v>
@@ -13211,13 +13219,13 @@
         <v>36</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -13268,33 +13276,33 @@
         <v>36</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E105" t="s" s="2">
         <v>36</v>
@@ -13304,7 +13312,7 @@
         <v>37</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>36</v>
@@ -13316,13 +13324,13 @@
         <v>36</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -13373,7 +13381,7 @@
         <v>36</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>37</v>
@@ -13385,18 +13393,18 @@
         <v>36</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13407,7 +13415,7 @@
         <v>37</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>36</v>
@@ -13419,13 +13427,13 @@
         <v>36</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -13476,13 +13484,13 @@
         <v>36</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>36</v>
@@ -13493,13 +13501,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13522,13 +13530,13 @@
         <v>36</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -13567,19 +13575,19 @@
         <v>36</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE107" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>37</v>
@@ -13591,18 +13599,18 @@
         <v>36</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13610,10 +13618,10 @@
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>36</v>
@@ -13625,16 +13633,16 @@
         <v>36</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -13642,7 +13650,7 @@
       </c>
       <c r="R108" s="2"/>
       <c r="S108" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>36</v>
@@ -13684,13 +13692,13 @@
         <v>36</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>36</v>
@@ -13701,13 +13709,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13718,7 +13726,7 @@
         <v>37</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>36</v>
@@ -13730,13 +13738,13 @@
         <v>36</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -13787,33 +13795,33 @@
         <v>36</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E110" t="s" s="2">
         <v>36</v>
@@ -13823,7 +13831,7 @@
         <v>37</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>36</v>
@@ -13835,13 +13843,13 @@
         <v>36</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -13892,7 +13900,7 @@
         <v>36</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>37</v>
@@ -13904,18 +13912,18 @@
         <v>36</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13926,7 +13934,7 @@
         <v>37</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>36</v>
@@ -13938,13 +13946,13 @@
         <v>36</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -13995,13 +14003,13 @@
         <v>36</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>36</v>
@@ -14012,13 +14020,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14041,13 +14049,13 @@
         <v>36</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -14086,19 +14094,19 @@
         <v>36</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE112" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>37</v>
@@ -14110,18 +14118,18 @@
         <v>36</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14129,10 +14137,10 @@
       </c>
       <c r="F113" s="2"/>
       <c r="G113" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>36</v>
@@ -14144,16 +14152,16 @@
         <v>36</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
@@ -14161,7 +14169,7 @@
       </c>
       <c r="R113" s="2"/>
       <c r="S113" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>36</v>
@@ -14203,13 +14211,13 @@
         <v>36</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>36</v>
@@ -14220,13 +14228,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14237,7 +14245,7 @@
         <v>37</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>36</v>
@@ -14249,13 +14257,13 @@
         <v>36</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -14306,30 +14314,30 @@
         <v>36</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -14337,10 +14345,10 @@
       </c>
       <c r="F115" s="2"/>
       <c r="G115" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>36</v>
@@ -14352,16 +14360,16 @@
         <v>36</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
@@ -14369,7 +14377,7 @@
       </c>
       <c r="R115" s="2"/>
       <c r="S115" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="T115" t="s" s="2">
         <v>36</v>
@@ -14411,13 +14419,13 @@
         <v>36</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>36</v>
@@ -14428,13 +14436,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14457,13 +14465,13 @@
         <v>36</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -14514,19 +14522,19 @@
         <v>36</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T14:49:19+02:00</t>
+    <t>2023-08-24T15:39:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -945,7 +945,7 @@
   </si>
   <si>
     <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
-dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
   </si>
   <si>
     <t>AppointmentResponse.id</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T15:39:37+02:00</t>
+    <t>2023-10-04T22:15:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T22:15:59+02:00</t>
+    <t>2023-10-04T22:20:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T22:20:28+02:00</t>
+    <t>2023-10-05T18:44:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T18:44:58+02:00</t>
+    <t>2023-10-05T18:59:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T18:59:01+02:00</t>
+    <t>2023-10-05T22:34:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T22:34:13+02:00</t>
+    <t>2023-10-05T23:14:02+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Example Publisher</t>
+    <t>Hl7 Norge</t>
   </si>
   <si>
     <t>Contact</t>
@@ -321,7 +321,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Virtual Service </t>
+    <t>Virtual Service</t>
   </si>
   <si>
     <t>The VirtualService structure defines details of a virtual communication capability, such as a web conference call.</t>
